--- a/AfterGratuationStatics/Resources/畢業生進路調查公務統計報表.xlsx
+++ b/AfterGratuationStatics/Resources/畢業生進路調查公務統計報表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ED\Desktop\畢業生進路樣板(施工參考此)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ED\Documents\ischool_github\Counsel_SystemV2\AfterGratuationStatics\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2517,7 +2517,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2861,7 +2861,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2917,7 +2917,7 @@
   <dimension ref="A1:W66"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3278,7 +3278,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="49">
-        <f t="shared" ref="D14" si="0">IF(D15+D29+D49+D57,D15+D29+D49+D57,0)</f>
+        <f>IF(D15+D29+D49+D57,D15+D29+D49+D57,0)</f>
         <v>0</v>
       </c>
       <c r="E14" s="49">
@@ -3345,7 +3345,10 @@
         <v>58</v>
       </c>
       <c r="B16" s="92"/>
-      <c r="C16" s="19"/>
+      <c r="C16" s="19" t="str">
+        <f>IF(D16+E16,D16+E16,"")</f>
+        <v/>
+      </c>
       <c r="D16" s="44">
         <f>F16+H16+J16+L16+N16+P16+R16+T16+V16</f>
         <v>0</v>
@@ -3383,11 +3386,11 @@
         <v/>
       </c>
       <c r="D17" s="44">
-        <f t="shared" ref="D17:D28" si="1">F17+H17+J17+L17+N17+P17+R17+T17+V17</f>
+        <f t="shared" ref="D17:D28" si="0">F17+H17+J17+L17+N17+P17+R17+T17+V17</f>
         <v>0</v>
       </c>
       <c r="E17" s="45">
-        <f t="shared" ref="E17:E28" si="2">G17+I17+K17+M17+O17+Q17+S17+U17+W17</f>
+        <f t="shared" ref="E17:E28" si="1">G17+I17+K17+M17+O17+Q17+S17+U17+W17</f>
         <v>0</v>
       </c>
       <c r="F17" s="17"/>
@@ -3415,15 +3418,15 @@
       </c>
       <c r="B18" s="92"/>
       <c r="C18" s="19" t="str">
-        <f t="shared" ref="C18:C28" si="3">IF(D18+E18,D18+E18,"")</f>
+        <f t="shared" ref="C18:C28" si="2">IF(D18+E18,D18+E18,"")</f>
         <v/>
       </c>
       <c r="D18" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E18" s="45">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E18" s="45">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F18" s="17"/>
@@ -3451,15 +3454,15 @@
       </c>
       <c r="B19" s="92"/>
       <c r="C19" s="19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D19" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="45">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E19" s="45">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F19" s="17"/>
@@ -3487,15 +3490,15 @@
       </c>
       <c r="B20" s="92"/>
       <c r="C20" s="19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D20" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E20" s="45">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E20" s="45">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F20" s="17"/>
@@ -3523,15 +3526,15 @@
       </c>
       <c r="B21" s="92"/>
       <c r="C21" s="19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D21" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E21" s="45">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E21" s="45">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F21" s="17"/>
@@ -3559,15 +3562,15 @@
       </c>
       <c r="B22" s="92"/>
       <c r="C22" s="19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D22" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E22" s="45">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E22" s="45">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F22" s="17"/>
@@ -3595,15 +3598,15 @@
       </c>
       <c r="B23" s="92"/>
       <c r="C23" s="19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D23" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E23" s="45">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E23" s="45">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F23" s="17"/>
@@ -3631,15 +3634,15 @@
       </c>
       <c r="B24" s="92"/>
       <c r="C24" s="19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D24" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E24" s="45">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E24" s="45">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F24" s="17"/>
@@ -3667,15 +3670,15 @@
       </c>
       <c r="B25" s="92"/>
       <c r="C25" s="19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D25" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E25" s="45">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E25" s="45">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F25" s="17"/>
@@ -3703,15 +3706,15 @@
       </c>
       <c r="B26" s="92"/>
       <c r="C26" s="19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D26" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E26" s="45">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E26" s="45">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F26" s="17"/>
@@ -3739,15 +3742,15 @@
       </c>
       <c r="B27" s="92"/>
       <c r="C27" s="19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D27" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="45">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E27" s="45">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F27" s="17"/>
@@ -3775,15 +3778,15 @@
       </c>
       <c r="B28" s="92"/>
       <c r="C28" s="19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D28" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E28" s="45">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E28" s="45">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F28" s="17"/>
@@ -3846,7 +3849,10 @@
         <v>45</v>
       </c>
       <c r="B30" s="92"/>
-      <c r="C30" s="19"/>
+      <c r="C30" s="19" t="str">
+        <f>IF(D30+E30,D30+E30,"")</f>
+        <v/>
+      </c>
       <c r="D30" s="44">
         <f>F30+H30+J30+L30+N30+P30+R30+T30+V30</f>
         <v>0</v>
@@ -3880,15 +3886,15 @@
       </c>
       <c r="B31" s="92"/>
       <c r="C31" s="19" t="str">
-        <f t="shared" ref="C31:C48" si="4">IF(D31+E31,D31+E31,"")</f>
+        <f t="shared" ref="C31:C48" si="3">IF(D31+E31,D31+E31,"")</f>
         <v/>
       </c>
       <c r="D31" s="44">
-        <f t="shared" ref="D31:D48" si="5">F31+H31+J31+L31+N31+P31+R31+T31+V31</f>
+        <f t="shared" ref="D31:D48" si="4">F31+H31+J31+L31+N31+P31+R31+T31+V31</f>
         <v>0</v>
       </c>
       <c r="E31" s="45">
-        <f t="shared" ref="E31:E48" si="6">G31+I31+K31+M31+O31+Q31+S31+U31+W31</f>
+        <f t="shared" ref="E31:E48" si="5">G31+I31+K31+M31+O31+Q31+S31+U31+W31</f>
         <v>0</v>
       </c>
       <c r="F31" s="17"/>
@@ -3916,15 +3922,15 @@
       </c>
       <c r="B32" s="92"/>
       <c r="C32" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D32" s="44">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="D32" s="44">
+        <v>0</v>
+      </c>
+      <c r="E32" s="45">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E32" s="45">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F32" s="17"/>
@@ -3952,15 +3958,15 @@
       </c>
       <c r="B33" s="92"/>
       <c r="C33" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D33" s="44">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="D33" s="44">
+        <v>0</v>
+      </c>
+      <c r="E33" s="45">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E33" s="45">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F33" s="17"/>
@@ -3988,15 +3994,15 @@
       </c>
       <c r="B34" s="92"/>
       <c r="C34" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D34" s="44">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="D34" s="44">
+        <v>0</v>
+      </c>
+      <c r="E34" s="45">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E34" s="45">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F34" s="17"/>
@@ -4024,15 +4030,15 @@
       </c>
       <c r="B35" s="92"/>
       <c r="C35" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D35" s="44">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="D35" s="44">
+        <v>0</v>
+      </c>
+      <c r="E35" s="45">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E35" s="45">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F35" s="17"/>
@@ -4060,15 +4066,15 @@
       </c>
       <c r="B36" s="92"/>
       <c r="C36" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D36" s="44">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="D36" s="44">
+        <v>0</v>
+      </c>
+      <c r="E36" s="45">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E36" s="45">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F36" s="17"/>
@@ -4096,15 +4102,15 @@
       </c>
       <c r="B37" s="92"/>
       <c r="C37" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D37" s="44">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="D37" s="44">
+        <v>0</v>
+      </c>
+      <c r="E37" s="45">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E37" s="45">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F37" s="17"/>
@@ -4132,15 +4138,15 @@
       </c>
       <c r="B38" s="92"/>
       <c r="C38" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D38" s="44">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="D38" s="44">
+        <v>0</v>
+      </c>
+      <c r="E38" s="45">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E38" s="45">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F38" s="17"/>
@@ -4168,15 +4174,15 @@
       </c>
       <c r="B39" s="92"/>
       <c r="C39" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D39" s="44">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="D39" s="44">
+        <v>0</v>
+      </c>
+      <c r="E39" s="45">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E39" s="45">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F39" s="17"/>
@@ -4204,15 +4210,15 @@
       </c>
       <c r="B40" s="92"/>
       <c r="C40" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D40" s="44">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="D40" s="44">
+        <v>0</v>
+      </c>
+      <c r="E40" s="45">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E40" s="45">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F40" s="17"/>
@@ -4240,15 +4246,15 @@
       </c>
       <c r="B41" s="92"/>
       <c r="C41" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D41" s="44">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="D41" s="44">
+        <v>0</v>
+      </c>
+      <c r="E41" s="45">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E41" s="45">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F41" s="17"/>
@@ -4276,15 +4282,15 @@
       </c>
       <c r="B42" s="92"/>
       <c r="C42" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D42" s="44">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="D42" s="44">
+        <v>0</v>
+      </c>
+      <c r="E42" s="45">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E42" s="45">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F42" s="17"/>
@@ -4312,15 +4318,15 @@
       </c>
       <c r="B43" s="92"/>
       <c r="C43" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D43" s="44">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="D43" s="44">
+        <v>0</v>
+      </c>
+      <c r="E43" s="45">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E43" s="45">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F43" s="17"/>
@@ -4348,15 +4354,15 @@
       </c>
       <c r="B44" s="92"/>
       <c r="C44" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D44" s="44">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="D44" s="44">
+        <v>0</v>
+      </c>
+      <c r="E44" s="45">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E44" s="45">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F44" s="17"/>
@@ -4384,15 +4390,15 @@
       </c>
       <c r="B45" s="92"/>
       <c r="C45" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D45" s="44">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="D45" s="44">
+        <v>0</v>
+      </c>
+      <c r="E45" s="45">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E45" s="45">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F45" s="17"/>
@@ -4420,15 +4426,15 @@
       </c>
       <c r="B46" s="92"/>
       <c r="C46" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D46" s="44">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="D46" s="44">
+        <v>0</v>
+      </c>
+      <c r="E46" s="45">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E46" s="45">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F46" s="17"/>
@@ -4456,15 +4462,15 @@
       </c>
       <c r="B47" s="92"/>
       <c r="C47" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D47" s="44">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="D47" s="44">
+        <v>0</v>
+      </c>
+      <c r="E47" s="45">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E47" s="45">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F47" s="17"/>
@@ -4492,15 +4498,15 @@
       </c>
       <c r="B48" s="92"/>
       <c r="C48" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D48" s="44">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="D48" s="44">
+        <v>0</v>
+      </c>
+      <c r="E48" s="45">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E48" s="45">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F48" s="17"/>
@@ -4563,7 +4569,10 @@
         <v>25</v>
       </c>
       <c r="B50" s="92"/>
-      <c r="C50" s="19"/>
+      <c r="C50" s="19" t="str">
+        <f>IF(D50+E50,D50+E50,"")</f>
+        <v/>
+      </c>
       <c r="D50" s="44">
         <f>F50+H50+J50+L50+N50+P50+R50+T50+V50</f>
         <v>0</v>
@@ -4597,15 +4606,15 @@
       </c>
       <c r="B51" s="92"/>
       <c r="C51" s="19" t="str">
-        <f t="shared" ref="C51:C56" si="7">IF(D51+E51,D51+E51,"")</f>
+        <f t="shared" ref="C51:C56" si="6">IF(D51+E51,D51+E51,"")</f>
         <v/>
       </c>
       <c r="D51" s="44">
-        <f t="shared" ref="D51:D56" si="8">F51+H51+J51+L51+N51+P51+R51+T51+V51</f>
+        <f t="shared" ref="D51:D56" si="7">F51+H51+J51+L51+N51+P51+R51+T51+V51</f>
         <v>0</v>
       </c>
       <c r="E51" s="45">
-        <f t="shared" ref="E51:E56" si="9">G51+I51+K51+M51+O51+Q51+S51+U51+W51</f>
+        <f t="shared" ref="E51:E56" si="8">G51+I51+K51+M51+O51+Q51+S51+U51+W51</f>
         <v>0</v>
       </c>
       <c r="F51" s="17"/>
@@ -4633,15 +4642,15 @@
       </c>
       <c r="B52" s="92"/>
       <c r="C52" s="19" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="D52" s="44">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="D52" s="44">
+        <v>0</v>
+      </c>
+      <c r="E52" s="45">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="E52" s="45">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F52" s="17"/>
@@ -4669,15 +4678,15 @@
       </c>
       <c r="B53" s="92"/>
       <c r="C53" s="19" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="D53" s="44">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="D53" s="44">
+        <v>0</v>
+      </c>
+      <c r="E53" s="45">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="E53" s="45">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F53" s="17"/>
@@ -4705,15 +4714,15 @@
       </c>
       <c r="B54" s="92"/>
       <c r="C54" s="19" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="D54" s="44">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="D54" s="44">
+        <v>0</v>
+      </c>
+      <c r="E54" s="45">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="E54" s="45">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F54" s="17"/>
@@ -4741,15 +4750,15 @@
       </c>
       <c r="B55" s="92"/>
       <c r="C55" s="19" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="D55" s="44">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="D55" s="44">
+        <v>0</v>
+      </c>
+      <c r="E55" s="45">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="E55" s="45">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F55" s="17"/>
@@ -4777,15 +4786,15 @@
       </c>
       <c r="B56" s="92"/>
       <c r="C56" s="19" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="D56" s="44">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="D56" s="44">
+        <v>0</v>
+      </c>
+      <c r="E56" s="45">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="E56" s="45">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F56" s="17"/>
@@ -4848,7 +4857,10 @@
         <v>17</v>
       </c>
       <c r="B58" s="92"/>
-      <c r="C58" s="19"/>
+      <c r="C58" s="19" t="str">
+        <f>IF(D58+E58,D58+E58,"")</f>
+        <v/>
+      </c>
       <c r="D58" s="44">
         <f>F58+H58+J58+L58+N58+P58+R58+T58+V58</f>
         <v>0</v>
@@ -4882,15 +4894,15 @@
       </c>
       <c r="B59" s="92"/>
       <c r="C59" s="19" t="str">
-        <f t="shared" ref="C59:C60" si="10">IF(D59+E59,D59+E59,"")</f>
+        <f t="shared" ref="C59:C60" si="9">IF(D59+E59,D59+E59,"")</f>
         <v/>
       </c>
       <c r="D59" s="44">
-        <f t="shared" ref="D59:D60" si="11">F59+H59+J59+L59+N59+P59+R59+T59+V59</f>
+        <f t="shared" ref="D59:D60" si="10">F59+H59+J59+L59+N59+P59+R59+T59+V59</f>
         <v>0</v>
       </c>
       <c r="E59" s="45">
-        <f t="shared" ref="E59:E60" si="12">G59+I59+K59+M59+O59+Q59+S59+U59+W59</f>
+        <f t="shared" ref="E59:E60" si="11">G59+I59+K59+M59+O59+Q59+S59+U59+W59</f>
         <v>0</v>
       </c>
       <c r="F59" s="17"/>
@@ -4918,15 +4930,15 @@
       </c>
       <c r="B60" s="101"/>
       <c r="C60" s="21" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="D60" s="46">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D60" s="46">
+        <v>0</v>
+      </c>
+      <c r="E60" s="47">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E60" s="47">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F60" s="25"/>
@@ -5098,7 +5110,7 @@
   <dimension ref="A1:W66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5459,7 +5471,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="49">
-        <f t="shared" ref="D14" si="0">IF(D15+D29+D49+D57,D15+D29+D49+D57,0)</f>
+        <f>IF(D15+D29+D49+D57,D15+D29+D49+D57,0)</f>
         <v>0</v>
       </c>
       <c r="E14" s="49">
@@ -5526,7 +5538,10 @@
         <v>58</v>
       </c>
       <c r="B16" s="92"/>
-      <c r="C16" s="19"/>
+      <c r="C16" s="19" t="str">
+        <f>IF(D16+E16,D16+E16,"")</f>
+        <v/>
+      </c>
       <c r="D16" s="44">
         <f>F16+H16+J16+L16+N16+P16+R16+T16+V16</f>
         <v>0</v>
@@ -5564,11 +5579,11 @@
         <v/>
       </c>
       <c r="D17" s="44">
-        <f t="shared" ref="D17:E28" si="1">F17+H17+J17+L17+N17+P17+R17+T17+V17</f>
+        <f t="shared" ref="D17:E28" si="0">F17+H17+J17+L17+N17+P17+R17+T17+V17</f>
         <v>0</v>
       </c>
       <c r="E17" s="45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F17" s="17"/>
@@ -5596,15 +5611,15 @@
       </c>
       <c r="B18" s="92"/>
       <c r="C18" s="19" t="str">
-        <f t="shared" ref="C18:C28" si="2">IF(D18+E18,D18+E18,"")</f>
+        <f>IF(D18+E18,D18+E18,"")</f>
         <v/>
       </c>
       <c r="D18" s="44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E18" s="45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F18" s="17"/>
@@ -5632,15 +5647,15 @@
       </c>
       <c r="B19" s="92"/>
       <c r="C19" s="19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="C19:C28" si="1">IF(D19+E19,D19+E19,"")</f>
         <v/>
       </c>
       <c r="D19" s="44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E19" s="45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F19" s="17"/>
@@ -5668,15 +5683,15 @@
       </c>
       <c r="B20" s="92"/>
       <c r="C20" s="19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D20" s="44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E20" s="45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F20" s="17"/>
@@ -5704,15 +5719,15 @@
       </c>
       <c r="B21" s="92"/>
       <c r="C21" s="19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D21" s="44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E21" s="45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F21" s="17"/>
@@ -5740,15 +5755,15 @@
       </c>
       <c r="B22" s="92"/>
       <c r="C22" s="19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D22" s="44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E22" s="45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F22" s="17"/>
@@ -5776,15 +5791,15 @@
       </c>
       <c r="B23" s="92"/>
       <c r="C23" s="19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D23" s="44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E23" s="45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F23" s="17"/>
@@ -5812,15 +5827,15 @@
       </c>
       <c r="B24" s="92"/>
       <c r="C24" s="19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D24" s="44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E24" s="45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F24" s="17"/>
@@ -5848,15 +5863,15 @@
       </c>
       <c r="B25" s="92"/>
       <c r="C25" s="19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D25" s="44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E25" s="45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F25" s="17"/>
@@ -5884,15 +5899,15 @@
       </c>
       <c r="B26" s="92"/>
       <c r="C26" s="19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D26" s="44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E26" s="45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F26" s="17"/>
@@ -5920,15 +5935,15 @@
       </c>
       <c r="B27" s="92"/>
       <c r="C27" s="19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D27" s="44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E27" s="45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F27" s="17"/>
@@ -5956,15 +5971,15 @@
       </c>
       <c r="B28" s="92"/>
       <c r="C28" s="19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D28" s="44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E28" s="45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F28" s="17"/>
@@ -6027,7 +6042,10 @@
         <v>45</v>
       </c>
       <c r="B30" s="92"/>
-      <c r="C30" s="19"/>
+      <c r="C30" s="19" t="str">
+        <f>IF(D30+E30,D30+E30,"")</f>
+        <v/>
+      </c>
       <c r="D30" s="44">
         <f>F30+H30+J30+L30+N30+P30+R30+T30+V30</f>
         <v>0</v>
@@ -6061,15 +6079,15 @@
       </c>
       <c r="B31" s="92"/>
       <c r="C31" s="19" t="str">
-        <f t="shared" ref="C31:C48" si="3">IF(D31+E31,D31+E31,"")</f>
+        <f t="shared" ref="C31:C48" si="2">IF(D31+E31,D31+E31,"")</f>
         <v/>
       </c>
       <c r="D31" s="44">
-        <f t="shared" ref="D31:E48" si="4">F31+H31+J31+L31+N31+P31+R31+T31+V31</f>
+        <f t="shared" ref="D31:E48" si="3">F31+H31+J31+L31+N31+P31+R31+T31+V31</f>
         <v>0</v>
       </c>
       <c r="E31" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F31" s="17"/>
@@ -6097,15 +6115,15 @@
       </c>
       <c r="B32" s="92"/>
       <c r="C32" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D32" s="44">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="D32" s="44">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E32" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F32" s="17"/>
@@ -6133,15 +6151,15 @@
       </c>
       <c r="B33" s="92"/>
       <c r="C33" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D33" s="44">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="D33" s="44">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E33" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F33" s="17"/>
@@ -6169,15 +6187,15 @@
       </c>
       <c r="B34" s="92"/>
       <c r="C34" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D34" s="44">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="D34" s="44">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E34" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F34" s="17"/>
@@ -6205,15 +6223,15 @@
       </c>
       <c r="B35" s="92"/>
       <c r="C35" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D35" s="44">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="D35" s="44">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E35" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F35" s="17"/>
@@ -6241,15 +6259,15 @@
       </c>
       <c r="B36" s="92"/>
       <c r="C36" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D36" s="44">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="D36" s="44">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E36" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F36" s="17"/>
@@ -6277,15 +6295,15 @@
       </c>
       <c r="B37" s="92"/>
       <c r="C37" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D37" s="44">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="D37" s="44">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E37" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F37" s="17"/>
@@ -6313,15 +6331,15 @@
       </c>
       <c r="B38" s="92"/>
       <c r="C38" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D38" s="44">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="D38" s="44">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E38" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F38" s="17"/>
@@ -6349,15 +6367,15 @@
       </c>
       <c r="B39" s="92"/>
       <c r="C39" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D39" s="44">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="D39" s="44">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E39" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F39" s="17"/>
@@ -6385,15 +6403,15 @@
       </c>
       <c r="B40" s="92"/>
       <c r="C40" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D40" s="44">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="D40" s="44">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E40" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F40" s="17"/>
@@ -6421,15 +6439,15 @@
       </c>
       <c r="B41" s="92"/>
       <c r="C41" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D41" s="44">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="D41" s="44">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E41" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F41" s="17"/>
@@ -6457,15 +6475,15 @@
       </c>
       <c r="B42" s="92"/>
       <c r="C42" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D42" s="44">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="D42" s="44">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E42" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F42" s="17"/>
@@ -6493,15 +6511,15 @@
       </c>
       <c r="B43" s="92"/>
       <c r="C43" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D43" s="44">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="D43" s="44">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E43" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F43" s="17"/>
@@ -6529,15 +6547,15 @@
       </c>
       <c r="B44" s="92"/>
       <c r="C44" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D44" s="44">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="D44" s="44">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E44" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F44" s="17"/>
@@ -6565,15 +6583,15 @@
       </c>
       <c r="B45" s="92"/>
       <c r="C45" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D45" s="44">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="D45" s="44">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E45" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F45" s="17"/>
@@ -6601,15 +6619,15 @@
       </c>
       <c r="B46" s="92"/>
       <c r="C46" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D46" s="44">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="D46" s="44">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E46" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F46" s="17"/>
@@ -6637,15 +6655,15 @@
       </c>
       <c r="B47" s="92"/>
       <c r="C47" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D47" s="44">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="D47" s="44">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E47" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F47" s="17"/>
@@ -6673,15 +6691,15 @@
       </c>
       <c r="B48" s="92"/>
       <c r="C48" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D48" s="44">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="D48" s="44">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E48" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F48" s="17"/>
@@ -6744,7 +6762,10 @@
         <v>25</v>
       </c>
       <c r="B50" s="92"/>
-      <c r="C50" s="19"/>
+      <c r="C50" s="19" t="str">
+        <f>IF(D50+E50,D50+E50,"")</f>
+        <v/>
+      </c>
       <c r="D50" s="44">
         <f>F50+H50+J50+L50+N50+P50+R50+T50+V50</f>
         <v>0</v>
@@ -6778,15 +6799,15 @@
       </c>
       <c r="B51" s="92"/>
       <c r="C51" s="19" t="str">
-        <f t="shared" ref="C51:C56" si="5">IF(D51+E51,D51+E51,"")</f>
+        <f t="shared" ref="C51:C56" si="4">IF(D51+E51,D51+E51,"")</f>
         <v/>
       </c>
       <c r="D51" s="44">
-        <f t="shared" ref="D51:E56" si="6">F51+H51+J51+L51+N51+P51+R51+T51+V51</f>
+        <f t="shared" ref="D51:E56" si="5">F51+H51+J51+L51+N51+P51+R51+T51+V51</f>
         <v>0</v>
       </c>
       <c r="E51" s="45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F51" s="17"/>
@@ -6814,15 +6835,15 @@
       </c>
       <c r="B52" s="92"/>
       <c r="C52" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="D52" s="44">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="D52" s="44">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E52" s="45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F52" s="17"/>
@@ -6850,15 +6871,15 @@
       </c>
       <c r="B53" s="92"/>
       <c r="C53" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="D53" s="44">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="D53" s="44">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E53" s="45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F53" s="17"/>
@@ -6886,15 +6907,15 @@
       </c>
       <c r="B54" s="92"/>
       <c r="C54" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="D54" s="44">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="D54" s="44">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E54" s="45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F54" s="17"/>
@@ -6922,15 +6943,15 @@
       </c>
       <c r="B55" s="92"/>
       <c r="C55" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="D55" s="44">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="D55" s="44">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E55" s="45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F55" s="17"/>
@@ -6958,15 +6979,15 @@
       </c>
       <c r="B56" s="92"/>
       <c r="C56" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="D56" s="44">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="D56" s="44">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E56" s="45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F56" s="17"/>
@@ -7029,7 +7050,10 @@
         <v>17</v>
       </c>
       <c r="B58" s="92"/>
-      <c r="C58" s="19"/>
+      <c r="C58" s="19" t="str">
+        <f>IF(D58+E58,D58+E58,"")</f>
+        <v/>
+      </c>
       <c r="D58" s="44">
         <f>F58+H58+J58+L58+N58+P58+R58+T58+V58</f>
         <v>0</v>
@@ -7063,15 +7087,15 @@
       </c>
       <c r="B59" s="92"/>
       <c r="C59" s="19" t="str">
-        <f t="shared" ref="C59:C60" si="7">IF(D59+E59,D59+E59,"")</f>
+        <f t="shared" ref="C59:C60" si="6">IF(D59+E59,D59+E59,"")</f>
         <v/>
       </c>
       <c r="D59" s="44">
-        <f t="shared" ref="D59:E60" si="8">F59+H59+J59+L59+N59+P59+R59+T59+V59</f>
+        <f t="shared" ref="D59:E60" si="7">F59+H59+J59+L59+N59+P59+R59+T59+V59</f>
         <v>0</v>
       </c>
       <c r="E59" s="45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F59" s="17"/>
@@ -7099,15 +7123,15 @@
       </c>
       <c r="B60" s="101"/>
       <c r="C60" s="21" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="D60" s="46">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="D60" s="46">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E60" s="47">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F60" s="25"/>
@@ -7171,11 +7195,6 @@
     </row>
   </sheetData>
   <mergeCells count="96">
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A61:D61"/>
     <mergeCell ref="R61:W61"/>
     <mergeCell ref="A51:B51"/>
     <mergeCell ref="A52:B52"/>
@@ -7183,11 +7202,11 @@
     <mergeCell ref="A54:B54"/>
     <mergeCell ref="A55:B55"/>
     <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:D61"/>
     <mergeCell ref="A50:B50"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="A40:B40"/>
@@ -7195,11 +7214,11 @@
     <mergeCell ref="A42:B42"/>
     <mergeCell ref="A43:B43"/>
     <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A28:B28"/>
@@ -7207,11 +7226,11 @@
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A16:B16"/>
@@ -7219,6 +7238,11 @@
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
     <mergeCell ref="P12:Q12"/>
     <mergeCell ref="R12:S12"/>
     <mergeCell ref="T12:U12"/>
@@ -7235,31 +7259,22 @@
     <mergeCell ref="J12:K12"/>
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="N12:O12"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="V9:W9"/>
     <mergeCell ref="N10:O10"/>
     <mergeCell ref="P10:Q10"/>
     <mergeCell ref="R10:S10"/>
     <mergeCell ref="T10:U10"/>
     <mergeCell ref="V10:W10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="L10:M10"/>
     <mergeCell ref="N9:O9"/>
     <mergeCell ref="P9:Q9"/>
     <mergeCell ref="R9:S9"/>
     <mergeCell ref="T9:U9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="A10:B11"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:E12"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="Q2:W5"/>
     <mergeCell ref="A6:W6"/>
@@ -7267,6 +7282,15 @@
     <mergeCell ref="N7:Q8"/>
     <mergeCell ref="R7:U8"/>
     <mergeCell ref="V8:W8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:E12"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="A10:B11"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
